--- a/0301_0307/Tianchen_Wang.xlsx
+++ b/0301_0307/Tianchen_Wang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60111\bison-timesheets\0301_0307\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474BAA3-DD16-41FD-B91F-9702CADAF86C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4E43FD-812C-4D7B-B06D-3B41FAC7039C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="4515" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="4350" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -610,9 +610,7 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.4</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -621,7 +619,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5">
         <f t="shared" ref="I6:I14" si="0">SUM(B6:H6)</f>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -632,15 +630,19 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -784,7 +786,7 @@
       </c>
       <c r="B16" s="5">
         <f>SUM(B6:B15)</f>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" ref="C16:H16" si="3">SUM(C6:C15)</f>
@@ -792,15 +794,15 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="3"/>
@@ -812,7 +814,7 @@
       </c>
       <c r="I16" s="5">
         <f>SUM(I6:I15)</f>
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="J16" s="6"/>
     </row>
